--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>64.47813050000001</v>
+        <v>69.12179</v>
       </c>
       <c r="H2">
-        <v>128.956261</v>
+        <v>138.24358</v>
       </c>
       <c r="I2">
-        <v>0.09343799995695903</v>
+        <v>0.1421442146893911</v>
       </c>
       <c r="J2">
-        <v>0.06466936064487877</v>
+        <v>0.1006496580066118</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>10611.6347246328</v>
+        <v>13931.89460496235</v>
       </c>
       <c r="R2">
-        <v>42446.5388985312</v>
+        <v>55727.57841984939</v>
       </c>
       <c r="S2">
-        <v>0.0216847684174016</v>
+        <v>0.04000905693121043</v>
       </c>
       <c r="T2">
-        <v>0.01167668701500225</v>
+        <v>0.02286233829842006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>64.47813050000001</v>
+        <v>69.12179</v>
       </c>
       <c r="H3">
-        <v>128.956261</v>
+        <v>138.24358</v>
       </c>
       <c r="I3">
-        <v>0.09343799995695903</v>
+        <v>0.1421442146893911</v>
       </c>
       <c r="J3">
-        <v>0.06466936064487877</v>
+        <v>0.1006496580066118</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>7657.701839528803</v>
+        <v>8209.20293950712</v>
       </c>
       <c r="R3">
-        <v>45946.21103717282</v>
+        <v>49255.21763704272</v>
       </c>
       <c r="S3">
-        <v>0.01564843639163601</v>
+        <v>0.02357486020958081</v>
       </c>
       <c r="T3">
-        <v>0.01263941748204289</v>
+        <v>0.02020704075989923</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>64.47813050000001</v>
+        <v>69.12179</v>
       </c>
       <c r="H4">
-        <v>128.956261</v>
+        <v>138.24358</v>
       </c>
       <c r="I4">
-        <v>0.09343799995695903</v>
+        <v>0.1421442146893911</v>
       </c>
       <c r="J4">
-        <v>0.06466936064487877</v>
+        <v>0.1006496580066118</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>5450.462554866388</v>
+        <v>5364.745178678424</v>
       </c>
       <c r="R4">
-        <v>32702.77532919833</v>
+        <v>32188.47107207054</v>
       </c>
       <c r="S4">
-        <v>0.01113796519923904</v>
+        <v>0.01540626033725022</v>
       </c>
       <c r="T4">
-        <v>0.008996259340574873</v>
+        <v>0.01320537758548048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.47813050000001</v>
+        <v>69.12179</v>
       </c>
       <c r="H5">
-        <v>128.956261</v>
+        <v>138.24358</v>
       </c>
       <c r="I5">
-        <v>0.09343799995695903</v>
+        <v>0.1421442146893911</v>
       </c>
       <c r="J5">
-        <v>0.06466936064487877</v>
+        <v>0.1006496580066118</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>9021.023336459519</v>
+        <v>11891.69488361729</v>
       </c>
       <c r="R5">
-        <v>36084.09334583808</v>
+        <v>47566.77953446914</v>
       </c>
       <c r="S5">
-        <v>0.01843437010557949</v>
+        <v>0.0341500930848101</v>
       </c>
       <c r="T5">
-        <v>0.009926431580833941</v>
+        <v>0.01951435602118411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.47813050000001</v>
+        <v>69.12179</v>
       </c>
       <c r="H6">
-        <v>128.956261</v>
+        <v>138.24358</v>
       </c>
       <c r="I6">
-        <v>0.09343799995695903</v>
+        <v>0.1421442146893911</v>
       </c>
       <c r="J6">
-        <v>0.06466936064487877</v>
+        <v>0.1006496580066118</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>7849.134571945561</v>
+        <v>4137.095738435543</v>
       </c>
       <c r="R6">
-        <v>47094.80743167337</v>
+        <v>24822.57443061326</v>
       </c>
       <c r="S6">
-        <v>0.01603962724749272</v>
+        <v>0.01188074584414235</v>
       </c>
       <c r="T6">
-        <v>0.01295538672130652</v>
+        <v>0.01018350536954708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.47813050000001</v>
+        <v>69.12179</v>
       </c>
       <c r="H7">
-        <v>128.956261</v>
+        <v>138.24358</v>
       </c>
       <c r="I7">
-        <v>0.09343799995695903</v>
+        <v>0.1421442146893911</v>
       </c>
       <c r="J7">
-        <v>0.06466936064487877</v>
+        <v>0.1006496580066118</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>5134.761164522402</v>
+        <v>5962.614769460726</v>
       </c>
       <c r="R7">
-        <v>30808.56698713441</v>
+        <v>35775.68861676436</v>
       </c>
       <c r="S7">
-        <v>0.01049283259561016</v>
+        <v>0.01712319828239722</v>
       </c>
       <c r="T7">
-        <v>0.008475178505118296</v>
+        <v>0.0146770399720809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>197.338167</v>
       </c>
       <c r="I8">
-        <v>0.09532370896750474</v>
+        <v>0.1352707965484252</v>
       </c>
       <c r="J8">
-        <v>0.09896171765341671</v>
+        <v>0.1436740788990104</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>10825.79229677772</v>
+        <v>13258.21444622339</v>
       </c>
       <c r="R8">
-        <v>64954.75378066635</v>
+        <v>79549.28667734034</v>
       </c>
       <c r="S8">
-        <v>0.02212239725379715</v>
+        <v>0.03807440923334359</v>
       </c>
       <c r="T8">
-        <v>0.01786850823918697</v>
+        <v>0.03263523653788562</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>197.338167</v>
       </c>
       <c r="I9">
-        <v>0.09532370896750474</v>
+        <v>0.1352707965484252</v>
       </c>
       <c r="J9">
-        <v>0.09896171765341671</v>
+        <v>0.1436740788990104</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>7812.24493083559</v>
+        <v>7812.244930835591</v>
       </c>
       <c r="R9">
         <v>70310.20437752032</v>
       </c>
       <c r="S9">
-        <v>0.01596424363834776</v>
+        <v>0.02243489209909982</v>
       </c>
       <c r="T9">
-        <v>0.01934174780280035</v>
+        <v>0.02884488656943636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>197.338167</v>
       </c>
       <c r="I10">
-        <v>0.09532370896750474</v>
+        <v>0.1352707965484252</v>
       </c>
       <c r="J10">
-        <v>0.09896171765341671</v>
+        <v>0.1436740788990104</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>5560.460482434272</v>
+        <v>5105.331618208419</v>
       </c>
       <c r="R10">
-        <v>50044.14434190845</v>
+        <v>45947.98456387578</v>
       </c>
       <c r="S10">
-        <v>0.01136274485360904</v>
+        <v>0.01466128686423273</v>
       </c>
       <c r="T10">
-        <v>0.01376672458055894</v>
+        <v>0.01885024250139937</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>197.338167</v>
       </c>
       <c r="I11">
-        <v>0.09532370896750474</v>
+        <v>0.1352707965484252</v>
       </c>
       <c r="J11">
-        <v>0.09896171765341671</v>
+        <v>0.1436740788990104</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>9203.08015486039</v>
+        <v>11316.66907958794</v>
       </c>
       <c r="R11">
-        <v>55218.48092916235</v>
+        <v>67900.01447752766</v>
       </c>
       <c r="S11">
-        <v>0.01880640137581043</v>
+        <v>0.03249875701152897</v>
       </c>
       <c r="T11">
-        <v>0.01519014119843846</v>
+        <v>0.02785610187037897</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>197.338167</v>
       </c>
       <c r="I12">
-        <v>0.09532370896750474</v>
+        <v>0.1352707965484252</v>
       </c>
       <c r="J12">
-        <v>0.09896171765341671</v>
+        <v>0.1436740788990104</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>8007.541042483474</v>
+        <v>3937.04546581901</v>
       </c>
       <c r="R12">
-        <v>72067.86938235127</v>
+        <v>35433.40919237109</v>
       </c>
       <c r="S12">
-        <v>0.01636332927065593</v>
+        <v>0.01130624948358503</v>
       </c>
       <c r="T12">
-        <v>0.01982526671084833</v>
+        <v>0.01453661922861863</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>197.338167</v>
       </c>
       <c r="I13">
-        <v>0.09532370896750474</v>
+        <v>0.1352707965484252</v>
       </c>
       <c r="J13">
-        <v>0.09896171765341671</v>
+        <v>0.1436740788990104</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>5238.387798219615</v>
+        <v>5674.291079231345</v>
       </c>
       <c r="R13">
-        <v>47145.49018397654</v>
+        <v>51068.61971308211</v>
       </c>
       <c r="S13">
-        <v>0.01070459257528442</v>
+        <v>0.01629520185663506</v>
       </c>
       <c r="T13">
-        <v>0.01296932912158367</v>
+        <v>0.02095099219129145</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>228.201711</v>
+        <v>146.201808</v>
       </c>
       <c r="H14">
-        <v>684.605133</v>
+        <v>438.605424</v>
       </c>
       <c r="I14">
-        <v>0.3306968005624167</v>
+        <v>0.3006539787862719</v>
       </c>
       <c r="J14">
-        <v>0.3433177722585505</v>
+        <v>0.3193311828689982</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>37556.81471980983</v>
+        <v>29467.81586690594</v>
       </c>
       <c r="R14">
-        <v>225340.888318859</v>
+        <v>176806.8952014357</v>
       </c>
       <c r="S14">
-        <v>0.07674697168041818</v>
+        <v>0.08462449337203068</v>
       </c>
       <c r="T14">
-        <v>0.06198938930855778</v>
+        <v>0.07253534365219685</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>228.201711</v>
+        <v>146.201808</v>
       </c>
       <c r="H15">
-        <v>684.605133</v>
+        <v>438.605424</v>
       </c>
       <c r="I15">
-        <v>0.3306968005624167</v>
+        <v>0.3006539787862719</v>
       </c>
       <c r="J15">
-        <v>0.3433177722585505</v>
+        <v>0.3193311828689982</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>27102.22285536521</v>
+        <v>17363.55947950502</v>
       </c>
       <c r="R15">
-        <v>243920.0056982868</v>
+        <v>156272.0353155452</v>
       </c>
       <c r="S15">
-        <v>0.05538311876219805</v>
+        <v>0.04986397467409297</v>
       </c>
       <c r="T15">
-        <v>0.06710034874798748</v>
+        <v>0.06411088081110806</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>228.201711</v>
+        <v>146.201808</v>
       </c>
       <c r="H16">
-        <v>684.605133</v>
+        <v>438.605424</v>
       </c>
       <c r="I16">
-        <v>0.3306968005624167</v>
+        <v>0.3006539787862719</v>
       </c>
       <c r="J16">
-        <v>0.3433177722585505</v>
+        <v>0.3193311828689982</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>19290.33722157843</v>
+        <v>11347.15181105797</v>
       </c>
       <c r="R16">
-        <v>173613.0349942058</v>
+        <v>102124.3662995217</v>
       </c>
       <c r="S16">
-        <v>0.03941960934374183</v>
+        <v>0.032586296098881</v>
       </c>
       <c r="T16">
-        <v>0.0477594905016419</v>
+        <v>0.0418967031594506</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>228.201711</v>
+        <v>146.201808</v>
       </c>
       <c r="H17">
-        <v>684.605133</v>
+        <v>438.605424</v>
       </c>
       <c r="I17">
-        <v>0.3306968005624167</v>
+        <v>0.3006539787862719</v>
       </c>
       <c r="J17">
-        <v>0.3433177722585505</v>
+        <v>0.3193311828689982</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>31927.30534194056</v>
+        <v>25152.52125515263</v>
       </c>
       <c r="R17">
-        <v>191563.8320516434</v>
+        <v>150915.1275309158</v>
       </c>
       <c r="S17">
-        <v>0.06524312610615302</v>
+        <v>0.07223200314065266</v>
       </c>
       <c r="T17">
-        <v>0.05269760428779972</v>
+        <v>0.06191319985172843</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>228.201711</v>
+        <v>146.201808</v>
       </c>
       <c r="H18">
-        <v>684.605133</v>
+        <v>438.605424</v>
       </c>
       <c r="I18">
-        <v>0.3306968005624167</v>
+        <v>0.3006539787862719</v>
       </c>
       <c r="J18">
-        <v>0.3433177722585505</v>
+        <v>0.3193311828689982</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>27779.74369444892</v>
+        <v>8750.509453362991</v>
       </c>
       <c r="R18">
-        <v>250017.6932500403</v>
+        <v>78754.58508026693</v>
       </c>
       <c r="S18">
-        <v>0.05676762575614779</v>
+        <v>0.02512936257585486</v>
       </c>
       <c r="T18">
-        <v>0.06877777147560508</v>
+        <v>0.03230920879231045</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>228.201711</v>
+        <v>146.201808</v>
       </c>
       <c r="H19">
-        <v>684.605133</v>
+        <v>438.605424</v>
       </c>
       <c r="I19">
-        <v>0.3306968005624167</v>
+        <v>0.3006539787862719</v>
       </c>
       <c r="J19">
-        <v>0.3433177722585505</v>
+        <v>0.3193311828689982</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>18173.00337701889</v>
+        <v>12611.72576263811</v>
       </c>
       <c r="R19">
-        <v>163557.03039317</v>
+        <v>113505.531863743</v>
       </c>
       <c r="S19">
-        <v>0.0371363489137578</v>
+        <v>0.03621784892475973</v>
       </c>
       <c r="T19">
-        <v>0.0449931679369585</v>
+        <v>0.04656584660220381</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.625726</v>
+        <v>16.2034615</v>
       </c>
       <c r="H20">
-        <v>23.251452</v>
+        <v>32.406923</v>
       </c>
       <c r="I20">
-        <v>0.01684733377137257</v>
+        <v>0.03332130591767492</v>
       </c>
       <c r="J20">
-        <v>0.01166020574142645</v>
+        <v>0.02359419306847091</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>1913.330252660883</v>
+        <v>3265.900924347663</v>
       </c>
       <c r="R20">
-        <v>7653.321010643532</v>
+        <v>13063.60369739065</v>
       </c>
       <c r="S20">
-        <v>0.003909871053010209</v>
+        <v>0.009378883469831673</v>
       </c>
       <c r="T20">
-        <v>0.002105364451039319</v>
+        <v>0.005359366683334227</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.625726</v>
+        <v>16.2034615</v>
       </c>
       <c r="H21">
-        <v>23.251452</v>
+        <v>32.406923</v>
       </c>
       <c r="I21">
-        <v>0.01684733377137257</v>
+        <v>0.03332130591767492</v>
       </c>
       <c r="J21">
-        <v>0.01166020574142645</v>
+        <v>0.02359419306847091</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>1380.721535902128</v>
+        <v>1924.393216321372</v>
       </c>
       <c r="R21">
-        <v>8284.329215412767</v>
+        <v>11546.35929792823</v>
       </c>
       <c r="S21">
-        <v>0.002821490517898762</v>
+        <v>0.005526395363514522</v>
       </c>
       <c r="T21">
-        <v>0.002278949518330724</v>
+        <v>0.004736914466219087</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.625726</v>
+        <v>16.2034615</v>
       </c>
       <c r="H22">
-        <v>23.251452</v>
+        <v>32.406923</v>
       </c>
       <c r="I22">
-        <v>0.01684733377137257</v>
+        <v>0.03332130591767492</v>
       </c>
       <c r="J22">
-        <v>0.01166020574142645</v>
+        <v>0.02359419306847091</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>982.7453703257819</v>
+        <v>1257.598247383733</v>
       </c>
       <c r="R22">
-        <v>5896.472221954692</v>
+        <v>7545.589484302399</v>
       </c>
       <c r="S22">
-        <v>0.002008230241785446</v>
+        <v>0.003611520277955922</v>
       </c>
       <c r="T22">
-        <v>0.001622070077209577</v>
+        <v>0.003095591524746334</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.625726</v>
+        <v>16.2034615</v>
       </c>
       <c r="H23">
-        <v>23.251452</v>
+        <v>32.406923</v>
       </c>
       <c r="I23">
-        <v>0.01684733377137257</v>
+        <v>0.03332130591767492</v>
       </c>
       <c r="J23">
-        <v>0.01166020574142645</v>
+        <v>0.02359419306847091</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>1626.535148212527</v>
+        <v>2787.639327865202</v>
       </c>
       <c r="R23">
-        <v>6506.140592850108</v>
+        <v>11150.55731146081</v>
       </c>
       <c r="S23">
-        <v>0.003323808152751238</v>
+        <v>0.008005430972217828</v>
       </c>
       <c r="T23">
-        <v>0.001789784735097465</v>
+        <v>0.004574535996341383</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.625726</v>
+        <v>16.2034615</v>
       </c>
       <c r="H24">
-        <v>23.251452</v>
+        <v>32.406923</v>
       </c>
       <c r="I24">
-        <v>0.01684733377137257</v>
+        <v>0.03332130591767492</v>
       </c>
       <c r="J24">
-        <v>0.01166020574142645</v>
+        <v>0.02359419306847091</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>1415.237804864184</v>
+        <v>969.813882417605</v>
       </c>
       <c r="R24">
-        <v>8491.426829185104</v>
+        <v>5818.88329450563</v>
       </c>
       <c r="S24">
-        <v>0.002892024165022659</v>
+        <v>0.002785072664883904</v>
       </c>
       <c r="T24">
-        <v>0.002335920335747761</v>
+        <v>0.002387207235091848</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.625726</v>
+        <v>16.2034615</v>
       </c>
       <c r="H25">
-        <v>23.251452</v>
+        <v>32.406923</v>
       </c>
       <c r="I25">
-        <v>0.01684733377137257</v>
+        <v>0.03332130591767492</v>
       </c>
       <c r="J25">
-        <v>0.01166020574142645</v>
+        <v>0.02359419306847091</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>925.8228473944101</v>
+        <v>1397.750244261444</v>
       </c>
       <c r="R25">
-        <v>5554.937084366461</v>
+        <v>8386.501465568665</v>
       </c>
       <c r="S25">
-        <v>0.001891909640904252</v>
+        <v>0.004014003169271071</v>
       </c>
       <c r="T25">
-        <v>0.001528116624001605</v>
+        <v>0.003440577162738029</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>44.18854533333333</v>
+        <v>30.75207133333333</v>
       </c>
       <c r="H26">
-        <v>132.565636</v>
+        <v>92.256214</v>
       </c>
       <c r="I26">
-        <v>0.06403549955521867</v>
+        <v>0.06323952301797744</v>
       </c>
       <c r="J26">
-        <v>0.0664794005124088</v>
+        <v>0.06716808395792986</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>7272.430178325512</v>
+        <v>6198.256970779892</v>
       </c>
       <c r="R26">
-        <v>43634.58106995307</v>
+        <v>37189.54182467936</v>
       </c>
       <c r="S26">
-        <v>0.01486113764193559</v>
+        <v>0.01779990611828741</v>
       </c>
       <c r="T26">
-        <v>0.01200350745681681</v>
+        <v>0.0152570757687224</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>44.18854533333333</v>
+        <v>30.75207133333333</v>
       </c>
       <c r="H27">
-        <v>132.565636</v>
+        <v>92.256214</v>
       </c>
       <c r="I27">
-        <v>0.06403549955521867</v>
+        <v>0.06323952301797744</v>
       </c>
       <c r="J27">
-        <v>0.0664794005124088</v>
+        <v>0.06716808395792986</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>5248.022891810868</v>
+        <v>3652.249086511397</v>
       </c>
       <c r="R27">
-        <v>47232.20602629781</v>
+        <v>32870.24177860258</v>
       </c>
       <c r="S27">
-        <v>0.01072428179175559</v>
+        <v>0.01048838264805339</v>
       </c>
       <c r="T27">
-        <v>0.01299318392285377</v>
+        <v>0.01348507523207939</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>44.18854533333333</v>
+        <v>30.75207133333333</v>
       </c>
       <c r="H28">
-        <v>132.565636</v>
+        <v>92.256214</v>
       </c>
       <c r="I28">
-        <v>0.06403549955521867</v>
+        <v>0.06323952301797744</v>
       </c>
       <c r="J28">
-        <v>0.0664794005124088</v>
+        <v>0.06716808395792986</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>3735.344214009883</v>
+        <v>2386.758595514887</v>
       </c>
       <c r="R28">
-        <v>33618.09792608895</v>
+        <v>21480.82735963398</v>
       </c>
       <c r="S28">
-        <v>0.007633138186716864</v>
+        <v>0.00685419774098765</v>
       </c>
       <c r="T28">
-        <v>0.009248056913686794</v>
+        <v>0.008812547681974744</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>44.18854533333333</v>
+        <v>30.75207133333333</v>
       </c>
       <c r="H29">
-        <v>132.565636</v>
+        <v>92.256214</v>
       </c>
       <c r="I29">
-        <v>0.06403549955521867</v>
+        <v>0.06323952301797744</v>
       </c>
       <c r="J29">
-        <v>0.0664794005124088</v>
+        <v>0.06716808395792986</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>6182.342688366241</v>
+        <v>5290.578402776227</v>
       </c>
       <c r="R29">
-        <v>37094.05613019744</v>
+        <v>31743.47041665736</v>
       </c>
       <c r="S29">
-        <v>0.01263355486247921</v>
+        <v>0.01519327116071579</v>
       </c>
       <c r="T29">
-        <v>0.010204263876135</v>
+        <v>0.01302281527404418</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>44.18854533333333</v>
+        <v>30.75207133333333</v>
       </c>
       <c r="H30">
-        <v>132.565636</v>
+        <v>92.256214</v>
       </c>
       <c r="I30">
-        <v>0.06403549955521867</v>
+        <v>0.06323952301797744</v>
       </c>
       <c r="J30">
-        <v>0.0664794005124088</v>
+        <v>0.06716808395792986</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>5379.21673860954</v>
+        <v>1840.581143242951</v>
       </c>
       <c r="R30">
-        <v>48412.95064748586</v>
+        <v>16565.23028918656</v>
       </c>
       <c r="S30">
-        <v>0.01099237509306509</v>
+        <v>0.005285707208859453</v>
       </c>
       <c r="T30">
-        <v>0.01331799686977551</v>
+        <v>0.006795915229069473</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>44.18854533333333</v>
+        <v>30.75207133333333</v>
       </c>
       <c r="H31">
-        <v>132.565636</v>
+        <v>92.256214</v>
       </c>
       <c r="I31">
-        <v>0.06403549955521867</v>
+        <v>0.06323952301797744</v>
       </c>
       <c r="J31">
-        <v>0.0664794005124088</v>
+        <v>0.06716808395792986</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>3518.985813249309</v>
+        <v>2652.748933782576</v>
       </c>
       <c r="R31">
-        <v>31670.87231924378</v>
+        <v>23874.74040404319</v>
       </c>
       <c r="S31">
-        <v>0.007191011979266318</v>
+        <v>0.00761805814107375</v>
       </c>
       <c r="T31">
-        <v>0.008712391473140929</v>
+        <v>0.009794654772039679</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>275.7897543333333</v>
+        <v>158.2207856666667</v>
       </c>
       <c r="H32">
-        <v>827.369263</v>
+        <v>474.662357</v>
       </c>
       <c r="I32">
-        <v>0.3996586571865284</v>
+        <v>0.3253701810402596</v>
       </c>
       <c r="J32">
-        <v>0.4149115431893187</v>
+        <v>0.3455828031989789</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>45388.72500004555</v>
+        <v>31890.30999084857</v>
       </c>
       <c r="R32">
-        <v>272332.3500002733</v>
+        <v>191341.8599450914</v>
       </c>
       <c r="S32">
-        <v>0.09275140126171018</v>
+        <v>0.09158131497229036</v>
       </c>
       <c r="T32">
-        <v>0.07491634648033164</v>
+        <v>0.07849833882527806</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>275.7897543333333</v>
+        <v>158.2207856666667</v>
       </c>
       <c r="H33">
-        <v>827.369263</v>
+        <v>474.662357</v>
       </c>
       <c r="I33">
-        <v>0.3996586571865284</v>
+        <v>0.3253701810402596</v>
       </c>
       <c r="J33">
-        <v>0.4149115431893187</v>
+        <v>0.3455828031989789</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>32753.98484268342</v>
+        <v>18790.9852853337</v>
       </c>
       <c r="R33">
-        <v>294785.8635841507</v>
+        <v>169118.8675680033</v>
       </c>
       <c r="S33">
-        <v>0.06693243731919443</v>
+        <v>0.05396319893251771</v>
       </c>
       <c r="T33">
-        <v>0.08109311983593523</v>
+        <v>0.0693813166230854</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>275.7897543333333</v>
+        <v>158.2207856666667</v>
       </c>
       <c r="H34">
-        <v>827.369263</v>
+        <v>474.662357</v>
       </c>
       <c r="I34">
-        <v>0.3996586571865284</v>
+        <v>0.3253701810402596</v>
       </c>
       <c r="J34">
-        <v>0.4149115431893187</v>
+        <v>0.3455828031989789</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>23313.0476543459</v>
+        <v>12279.97997551803</v>
       </c>
       <c r="R34">
-        <v>209817.4288891131</v>
+        <v>110519.8197796622</v>
       </c>
       <c r="S34">
-        <v>0.04763997749704221</v>
+        <v>0.03526515466027333</v>
       </c>
       <c r="T34">
-        <v>0.05771901575502642</v>
+        <v>0.0453409529021104</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>275.7897543333333</v>
+        <v>158.2207856666667</v>
       </c>
       <c r="H35">
-        <v>827.369263</v>
+        <v>474.662357</v>
       </c>
       <c r="I35">
-        <v>0.3996586571865284</v>
+        <v>0.3253701810402596</v>
       </c>
       <c r="J35">
-        <v>0.4149115431893187</v>
+        <v>0.3455828031989789</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>38585.26589565803</v>
+        <v>27220.26306602024</v>
       </c>
       <c r="R35">
-        <v>231511.5953739481</v>
+        <v>163321.5783961214</v>
       </c>
       <c r="S35">
-        <v>0.07884860127431133</v>
+        <v>0.07817006125663779</v>
       </c>
       <c r="T35">
-        <v>0.06368689908940911</v>
+        <v>0.06700296841525942</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>275.7897543333333</v>
+        <v>158.2207856666667</v>
       </c>
       <c r="H36">
-        <v>827.369263</v>
+        <v>474.662357</v>
       </c>
       <c r="I36">
-        <v>0.3996586571865284</v>
+        <v>0.3253701810402596</v>
       </c>
       <c r="J36">
-        <v>0.4149115431893187</v>
+        <v>0.3455828031989789</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>33572.79248854989</v>
+        <v>9469.872497710057</v>
       </c>
       <c r="R36">
-        <v>302155.132396949</v>
+        <v>85228.85247939052</v>
       </c>
       <c r="S36">
-        <v>0.06860566247627567</v>
+        <v>0.02719520055493627</v>
       </c>
       <c r="T36">
-        <v>0.08312034390860139</v>
+        <v>0.03496528852357101</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>275.7897543333333</v>
+        <v>158.2207856666667</v>
       </c>
       <c r="H37">
-        <v>827.369263</v>
+        <v>474.662357</v>
       </c>
       <c r="I37">
-        <v>0.3996586571865284</v>
+        <v>0.3253701810402596</v>
       </c>
       <c r="J37">
-        <v>0.4149115431893187</v>
+        <v>0.3455828031989789</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>21962.71059881263</v>
+        <v>13648.51219060945</v>
       </c>
       <c r="R37">
-        <v>197664.3953893137</v>
+        <v>122836.6097154851</v>
       </c>
       <c r="S37">
-        <v>0.04488057735799453</v>
+        <v>0.03919525066360413</v>
       </c>
       <c r="T37">
-        <v>0.05437581812001487</v>
+        <v>0.05039393790967459</v>
       </c>
     </row>
   </sheetData>
